--- a/data/trans_bre/P40_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.659046225806796</v>
+        <v>-7.124445479215854</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.426156261609689</v>
+        <v>-8.268490560018774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.881595596921679</v>
+        <v>-2.645712428176487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.73165692203168</v>
+        <v>-15.49801367112521</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.069294734642523</v>
+        <v>-0.0736668363941171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.08593004263912803</v>
+        <v>-0.0844982955867136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02990132120724457</v>
+        <v>-0.02729557741018226</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1605057701622236</v>
+        <v>-0.155983032217027</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.044450090385802</v>
+        <v>-1.071596640405114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.580077022030713</v>
+        <v>-2.425573619925167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.09474782227106</v>
+        <v>3.175364693511579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.202293934881616</v>
+        <v>-4.066232537292856</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.01095827497535235</v>
+        <v>-0.01142769237568148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.02663053705819918</v>
+        <v>-0.02510189688631117</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03296617658179313</v>
+        <v>0.03408356064043483</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.04456138574112158</v>
+        <v>-0.04217914999723371</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.895096189484313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.02512393111085975</v>
+        <v>-0.02512393111087086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0855243484692683</v>
@@ -749,7 +749,7 @@
         <v>-0.01985150767197354</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0002697750699211534</v>
+        <v>-0.0002697750699212725</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.30161653216024</v>
+        <v>-11.09005140318465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.266581834112831</v>
+        <v>-5.776209630582924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.638203480110906</v>
+        <v>-4.645131689905823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.440143267332294</v>
+        <v>-3.442720848698237</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1177022829054616</v>
+        <v>-0.1165383288385537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06599693946702173</v>
+        <v>-0.06112299387084621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04860849525643888</v>
+        <v>-0.04778178711278751</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03617978468284028</v>
+        <v>-0.03590229101097558</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.831014413020487</v>
+        <v>-5.059952875536472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2190976117178284</v>
+        <v>0.5408601627265253</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7355338365802015</v>
+        <v>0.7024142721295596</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.178005346595271</v>
+        <v>3.940504884644796</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05112625251209955</v>
+        <v>-0.05419978921715007</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002393313981271948</v>
+        <v>0.005946785225843305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007879078592562566</v>
+        <v>0.007563623930254548</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04617792486521424</v>
+        <v>0.04374751376019486</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.91568014653738</v>
+        <v>-11.61959633075236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.45918522416161</v>
+        <v>-10.59887842272411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.666675426682318</v>
+        <v>-5.630615720356475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.613482951180373</v>
+        <v>-8.535190420544355</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1325731193918064</v>
+        <v>-0.1296539585036516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1142295231215163</v>
+        <v>-0.1156551159918084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06133206513654138</v>
+        <v>-0.06045371286836517</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09219168456650023</v>
+        <v>-0.0917814661276276</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.902913732366199</v>
+        <v>-3.798745072976044</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.735156753602947</v>
+        <v>-2.854463319078281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9585895881845448</v>
+        <v>0.4955173082459606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.380258175217113</v>
+        <v>-2.173005599474665</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.04609552930569898</v>
+        <v>-0.04416818598475377</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03070899080161977</v>
+        <v>-0.03181720278180162</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01051816398367958</v>
+        <v>0.005224674812799981</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.02626204711623049</v>
+        <v>-0.0256125607300285</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.2378197828439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.326751883267855</v>
+        <v>-5.326751883267833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1586042079423451</v>
@@ -949,7 +949,7 @@
         <v>-0.06221548557027022</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.06494503887512111</v>
+        <v>-0.06494503887512086</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.04817131850212</v>
+        <v>-19.14718678018485</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.39527838848658</v>
+        <v>-13.36264044331838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.968104734528664</v>
+        <v>-9.898480284361966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.450764109524936</v>
+        <v>-9.29892414166598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2153771094772223</v>
+        <v>-0.2212416415559333</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1556593431530348</v>
+        <v>-0.1543702190498461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1161715996120263</v>
+        <v>-0.11434958004776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.113146508165128</v>
+        <v>-0.1113392540912999</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-9.210094670611028</v>
+        <v>-8.922799072468278</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.526148453073361</v>
+        <v>-3.722422684754324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.9027297811442292</v>
+        <v>-0.9879224657315151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.590219468253898</v>
+        <v>-1.182711724141797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1066072585430099</v>
+        <v>-0.106819727411643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04275163677935986</v>
+        <v>-0.04617051091854487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.0109411060585687</v>
+        <v>-0.01181208806366693</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01989714183588018</v>
+        <v>-0.01550058120733325</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-14.35174368888885</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.921148881708859</v>
+        <v>-5.921148881708826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1442203192695824</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1880789559140817</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08385908367120587</v>
+        <v>-0.08385908367120541</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.94714014038506</v>
+        <v>-17.00611689409639</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.85713768272751</v>
+        <v>-17.2813920137768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.02842167288647</v>
+        <v>-20.47028890859563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.40404017575247</v>
+        <v>-10.70042733735255</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2282108924375155</v>
+        <v>-0.2323438333401681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2276033646239306</v>
+        <v>-0.2261616680740723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2557842443740176</v>
+        <v>-0.2628402815413892</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1432828223959366</v>
+        <v>-0.1460200161905091</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.926411979690028</v>
+        <v>-3.478374498092118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.342995606042827</v>
+        <v>-4.415439245709872</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.477532517296178</v>
+        <v>-8.055637138831539</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.067757130762618</v>
+        <v>-1.352912285566516</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05863899630831095</v>
+        <v>-0.05318198645607291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.06377670680534324</v>
+        <v>-0.06410033027125042</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1153524454348697</v>
+        <v>-0.1092618867929726</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.01729355763578709</v>
+        <v>-0.02026718765321064</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-30.91708602122349</v>
+        <v>-31.70303227932347</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-23.31219274647637</v>
+        <v>-22.2894244923308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-25.64263898236772</v>
+        <v>-25.16985160469384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-18.37546679324617</v>
+        <v>-18.16702155729899</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4556372459866136</v>
+        <v>-0.4587053749335431</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3374953696057339</v>
+        <v>-0.3234077806333677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3531735389753374</v>
+        <v>-0.3496543826762538</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2510933865462561</v>
+        <v>-0.2466169898796026</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-15.96263748927038</v>
+        <v>-16.18970957297224</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-8.123687830687659</v>
+        <v>-6.520679283519967</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-11.33710554132321</v>
+        <v>-10.22881014326112</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-8.898993506584228</v>
+        <v>-8.325926054269987</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2576900224735863</v>
+        <v>-0.2623638466791177</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1321131369342296</v>
+        <v>-0.1081441343842734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1711027591816919</v>
+        <v>-0.1572992632587917</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1299804610652092</v>
+        <v>-0.1218856360701738</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-15.99889309423973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-17.03681106352529</v>
+        <v>-17.0368110635253</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2373897427223114</v>
@@ -1249,7 +1249,7 @@
         <v>-0.3080816976817928</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3160218775524009</v>
+        <v>-0.316021877552401</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-19.77261915599256</v>
+        <v>-20.21591951868366</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-18.97591678758102</v>
+        <v>-20.19164696795168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-23.49088061245551</v>
+        <v>-23.55761904550675</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.54244591886754</v>
+        <v>-22.70882111362792</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3855837909549544</v>
+        <v>-0.3864597209725369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3900546634783779</v>
+        <v>-0.4082057526203146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4292289123690087</v>
+        <v>-0.426238327667224</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3945861184148207</v>
+        <v>-0.3944010650449732</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.3251140015006</v>
+        <v>-2.863240421380493</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.222907248243567</v>
+        <v>-3.315296990510372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.758030872449898</v>
+        <v>-8.545988126818242</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-10.67887118058754</v>
+        <v>-10.7356843888992</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.05214611052523627</v>
+        <v>-0.06123316763046419</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.05795367423283952</v>
+        <v>-0.08276679046140195</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1633212871609623</v>
+        <v>-0.1761282764829717</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2154278310066042</v>
+        <v>-0.2145899166542036</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-9.169875807405647</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-8.900211066652087</v>
+        <v>-8.900211066652064</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1492271823438772</v>
@@ -1349,7 +1349,7 @@
         <v>-0.1091201756124593</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1093937463461446</v>
+        <v>-0.1093937463461443</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-14.66384889459873</v>
+        <v>-14.44960736317985</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-11.92880293834195</v>
+        <v>-11.99914445378494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.20587493934188</v>
+        <v>-11.05235831915747</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-10.58738828538478</v>
+        <v>-10.57631871169433</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1725927613452854</v>
+        <v>-0.1709872665268461</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1425091586857355</v>
+        <v>-0.1432416018963788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1317231198538319</v>
+        <v>-0.1312382229641627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1293817965045846</v>
+        <v>-0.1284460941404389</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-10.51344914976781</v>
+        <v>-10.62654794118976</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-8.050062082913815</v>
+        <v>-8.061638918200755</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-7.260588648162096</v>
+        <v>-7.196961216500893</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-7.096458747758591</v>
+        <v>-7.057252101929507</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1257517399123695</v>
+        <v>-0.1280689188119879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.09825602734287166</v>
+        <v>-0.09780096051043352</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.08701865437180631</v>
+        <v>-0.0862499617650368</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08899232173366521</v>
+        <v>-0.08815892416070564</v>
       </c>
     </row>
     <row r="28">
